--- a/Cash+flow.xlsx
+++ b/Cash+flow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7925a624fd38486b/Shared/Excelfiles/The Complete Financial Analyst Course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2705255-A144-46FA-A854-884C84152726}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D2705255-A144-46FA-A854-884C84152726}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{22260103-D7BA-400F-A8A3-19A3CD56D4A7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="132">
   <si>
     <t>P&amp;L Budgeting</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>Comments:</t>
-  </si>
-  <si>
-    <t>Cash flow for 2015 is different than the one in the video because the value for Taxes was corrected (previously entered incorrectly)</t>
   </si>
 </sst>
 </file>
@@ -2906,7 +2903,7 @@
   <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -3471,7 +3468,7 @@
   <dimension ref="B1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -3679,7 +3676,7 @@
   <dimension ref="B1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -3757,9 +3754,6 @@
       <c r="D8" s="27">
         <f>'P&amp;L'!L14</f>
         <v>-737.44512280637593</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
